--- a/data/pca/factorExposure/factorExposure_2015-09-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-09-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02705610534456649</v>
+        <v>0.02161100569234741</v>
       </c>
       <c r="C2">
-        <v>-0.03124226307389383</v>
+        <v>-0.04339912311535078</v>
       </c>
       <c r="D2">
-        <v>0.1162094068104585</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1298032065861448</v>
+      </c>
+      <c r="E2">
+        <v>-0.03572640010224721</v>
+      </c>
+      <c r="F2">
+        <v>0.02866511370165472</v>
+      </c>
+      <c r="G2">
+        <v>0.08403109917197103</v>
+      </c>
+      <c r="H2">
+        <v>-0.07094199372869094</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.003907134444619952</v>
+        <v>-0.008864992462761734</v>
       </c>
       <c r="C3">
-        <v>-0.05730814970891073</v>
+        <v>-0.04222389783242084</v>
       </c>
       <c r="D3">
-        <v>0.05812729598907094</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.04459921747637853</v>
+      </c>
+      <c r="E3">
+        <v>-0.04837624988401179</v>
+      </c>
+      <c r="F3">
+        <v>0.04792885063809616</v>
+      </c>
+      <c r="G3">
+        <v>0.1128701062710689</v>
+      </c>
+      <c r="H3">
+        <v>-0.04703961651958151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05034328235504457</v>
+        <v>0.04244926273032767</v>
       </c>
       <c r="C4">
-        <v>-0.06823702763078746</v>
+        <v>-0.08475846967247677</v>
       </c>
       <c r="D4">
-        <v>0.1293441584867933</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1468533805796118</v>
+      </c>
+      <c r="E4">
+        <v>-0.05039325351128409</v>
+      </c>
+      <c r="F4">
+        <v>0.06111365374465621</v>
+      </c>
+      <c r="G4">
+        <v>-0.04762719362934532</v>
+      </c>
+      <c r="H4">
+        <v>-0.01140578460404821</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03289312158287085</v>
+        <v>0.03230605749744792</v>
       </c>
       <c r="C6">
-        <v>-0.02489597701221026</v>
+        <v>-0.03342721862668095</v>
       </c>
       <c r="D6">
-        <v>0.1497375964351113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1397150159997435</v>
+      </c>
+      <c r="E6">
+        <v>-0.00639435720910007</v>
+      </c>
+      <c r="F6">
+        <v>0.05868859765107064</v>
+      </c>
+      <c r="G6">
+        <v>0.009079708372947396</v>
+      </c>
+      <c r="H6">
+        <v>-0.0560147506309125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01683258207265851</v>
+        <v>0.0125094889371801</v>
       </c>
       <c r="C7">
-        <v>-0.03176751630450433</v>
+        <v>-0.03871501979297672</v>
       </c>
       <c r="D7">
-        <v>0.1100125949570229</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09797394028325675</v>
+      </c>
+      <c r="E7">
+        <v>0.01016897758525088</v>
+      </c>
+      <c r="F7">
+        <v>0.02546630115220829</v>
+      </c>
+      <c r="G7">
+        <v>0.02428403343194199</v>
+      </c>
+      <c r="H7">
+        <v>-0.060269215745543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01139194087446161</v>
+        <v>0.005179182359171559</v>
       </c>
       <c r="C8">
-        <v>-0.034764247631455</v>
+        <v>-0.04054414729722275</v>
       </c>
       <c r="D8">
-        <v>0.06677816064962844</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07819433735447348</v>
+      </c>
+      <c r="E8">
+        <v>-0.01777273753261659</v>
+      </c>
+      <c r="F8">
+        <v>0.06936531028986981</v>
+      </c>
+      <c r="G8">
+        <v>0.05762514130325534</v>
+      </c>
+      <c r="H8">
+        <v>-0.03938807969292062</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03932642342643334</v>
+        <v>0.03167729679352242</v>
       </c>
       <c r="C9">
-        <v>-0.06132826824732043</v>
+        <v>-0.07369063523329801</v>
       </c>
       <c r="D9">
-        <v>0.1195002759472615</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1252403280768276</v>
+      </c>
+      <c r="E9">
+        <v>-0.03372072184611725</v>
+      </c>
+      <c r="F9">
+        <v>0.03680962536097192</v>
+      </c>
+      <c r="G9">
+        <v>-0.03288369372826087</v>
+      </c>
+      <c r="H9">
+        <v>-0.004553487681231202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1315066225976561</v>
+        <v>0.18092985374849</v>
       </c>
       <c r="C10">
-        <v>0.1875263103612573</v>
+        <v>0.1684077850397764</v>
       </c>
       <c r="D10">
-        <v>0.001978683592673967</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.008975640825239498</v>
+      </c>
+      <c r="E10">
+        <v>-0.03117684687214781</v>
+      </c>
+      <c r="F10">
+        <v>0.04181285038695226</v>
+      </c>
+      <c r="G10">
+        <v>-0.009409310690151731</v>
+      </c>
+      <c r="H10">
+        <v>0.0485990862994503</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03332321668916267</v>
+        <v>0.02618672440407469</v>
       </c>
       <c r="C11">
-        <v>-0.04385750548309725</v>
+        <v>-0.05237904259443561</v>
       </c>
       <c r="D11">
-        <v>0.06194373124989618</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05469573017665149</v>
+      </c>
+      <c r="E11">
+        <v>0.01735944438639959</v>
+      </c>
+      <c r="F11">
+        <v>-0.008864311691680409</v>
+      </c>
+      <c r="G11">
+        <v>0.01006035193399398</v>
+      </c>
+      <c r="H11">
+        <v>-0.03031227843203482</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.0385452309583643</v>
+        <v>0.02945454142537135</v>
       </c>
       <c r="C12">
-        <v>-0.04594987258742896</v>
+        <v>-0.0534612756856478</v>
       </c>
       <c r="D12">
-        <v>0.06805036422032661</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.0552568211652425</v>
+      </c>
+      <c r="E12">
+        <v>0.008229903495125318</v>
+      </c>
+      <c r="F12">
+        <v>-0.01435694813283466</v>
+      </c>
+      <c r="G12">
+        <v>0.01121512233340361</v>
+      </c>
+      <c r="H12">
+        <v>-0.03403472838335877</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01190688975565409</v>
+        <v>0.01315036879866735</v>
       </c>
       <c r="C13">
-        <v>-0.03764077366365681</v>
+        <v>-0.04632935369135666</v>
       </c>
       <c r="D13">
-        <v>0.1480933769957211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.160176756215867</v>
+      </c>
+      <c r="E13">
+        <v>-8.17665059323809e-05</v>
+      </c>
+      <c r="F13">
+        <v>0.06899396385860276</v>
+      </c>
+      <c r="G13">
+        <v>0.04273448749873924</v>
+      </c>
+      <c r="H13">
+        <v>-0.03666699434611373</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.00341209247902682</v>
+        <v>0.004548920190971494</v>
       </c>
       <c r="C14">
-        <v>-0.02503614836659318</v>
+        <v>-0.02849388871892763</v>
       </c>
       <c r="D14">
-        <v>0.1049489874865688</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.1061450037363092</v>
+      </c>
+      <c r="E14">
+        <v>-0.01193514047957265</v>
+      </c>
+      <c r="F14">
+        <v>0.02659135882855358</v>
+      </c>
+      <c r="G14">
+        <v>0.02774758179688383</v>
+      </c>
+      <c r="H14">
+        <v>-0.08736186573473823</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.00270137803692276</v>
+        <v>0.001294241062820299</v>
       </c>
       <c r="C15">
-        <v>-0.005957901131212733</v>
+        <v>-0.01477577802659803</v>
       </c>
       <c r="D15">
-        <v>0.012124229172876</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04050614776331523</v>
+      </c>
+      <c r="E15">
+        <v>-0.006898950587708503</v>
+      </c>
+      <c r="F15">
+        <v>0.007170637938962684</v>
+      </c>
+      <c r="G15">
+        <v>0.009430183022488079</v>
+      </c>
+      <c r="H15">
+        <v>-0.020970622251296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02979065701172963</v>
+        <v>0.02402750501813872</v>
       </c>
       <c r="C16">
-        <v>-0.04539210671294654</v>
+        <v>-0.05069549848786741</v>
       </c>
       <c r="D16">
-        <v>0.07223544444259278</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06099561748333183</v>
+      </c>
+      <c r="E16">
+        <v>0.002858561952379668</v>
+      </c>
+      <c r="F16">
+        <v>-0.0008672822335436077</v>
+      </c>
+      <c r="G16">
+        <v>0.008322755185815831</v>
+      </c>
+      <c r="H16">
+        <v>-0.04559738189606028</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01037058899007496</v>
+        <v>0.005750234816776908</v>
       </c>
       <c r="C19">
-        <v>-0.03094087617585799</v>
+        <v>-0.02726108782321032</v>
       </c>
       <c r="D19">
-        <v>0.1512863082032722</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1137897752185663</v>
+      </c>
+      <c r="E19">
+        <v>-0.04422155990945986</v>
+      </c>
+      <c r="F19">
+        <v>0.01386502803642062</v>
+      </c>
+      <c r="G19">
+        <v>0.02595043075945166</v>
+      </c>
+      <c r="H19">
+        <v>-0.04748940918848187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01432503225481648</v>
+        <v>0.01299487181643232</v>
       </c>
       <c r="C20">
-        <v>-0.03630902009450358</v>
+        <v>-0.04155036386660404</v>
       </c>
       <c r="D20">
-        <v>0.096717480207187</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.1064612661136998</v>
+      </c>
+      <c r="E20">
+        <v>-0.03259160431503647</v>
+      </c>
+      <c r="F20">
+        <v>0.02509164377843475</v>
+      </c>
+      <c r="G20">
+        <v>0.008294199353067709</v>
+      </c>
+      <c r="H20">
+        <v>-0.05612704470707072</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01115518285133033</v>
+        <v>0.005765367353636647</v>
       </c>
       <c r="C21">
-        <v>-0.03825524992049689</v>
+        <v>-0.04660586272747695</v>
       </c>
       <c r="D21">
-        <v>0.1595488673282186</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1558783250574214</v>
+      </c>
+      <c r="E21">
+        <v>-0.05983130633485433</v>
+      </c>
+      <c r="F21">
+        <v>0.06262518050209813</v>
+      </c>
+      <c r="G21">
+        <v>0.01335103939943581</v>
+      </c>
+      <c r="H21">
+        <v>-0.08263833412395585</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.002595606151146875</v>
+        <v>0.00781778025477935</v>
       </c>
       <c r="C22">
-        <v>-0.04992991106444131</v>
+        <v>-0.05330225679478882</v>
       </c>
       <c r="D22">
-        <v>0.1352022836203939</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1936985692764324</v>
+      </c>
+      <c r="E22">
+        <v>0.004704125707281244</v>
+      </c>
+      <c r="F22">
+        <v>0.1243811609153184</v>
+      </c>
+      <c r="G22">
+        <v>0.1307642650634717</v>
+      </c>
+      <c r="H22">
+        <v>0.08326463830958843</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.002770680505075419</v>
+        <v>0.007739467634837531</v>
       </c>
       <c r="C23">
-        <v>-0.05024559684186398</v>
+        <v>-0.0540742958970539</v>
       </c>
       <c r="D23">
-        <v>0.1346396403773342</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1925668761023416</v>
+      </c>
+      <c r="E23">
+        <v>0.004424553012985776</v>
+      </c>
+      <c r="F23">
+        <v>0.1239422825465917</v>
+      </c>
+      <c r="G23">
+        <v>0.1300401591266441</v>
+      </c>
+      <c r="H23">
+        <v>0.08263154383718949</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03671965378327194</v>
+        <v>0.0266683642404057</v>
       </c>
       <c r="C24">
-        <v>-0.05809007906784942</v>
+        <v>-0.06301755544292276</v>
       </c>
       <c r="D24">
-        <v>0.07176522264308956</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.0606746440371807</v>
+      </c>
+      <c r="E24">
+        <v>0.004569038657413635</v>
+      </c>
+      <c r="F24">
+        <v>-0.001993029096591272</v>
+      </c>
+      <c r="G24">
+        <v>0.002825424755544506</v>
+      </c>
+      <c r="H24">
+        <v>-0.05749233305131966</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.04146882038494561</v>
+        <v>0.03175044974104199</v>
       </c>
       <c r="C25">
-        <v>-0.05184260388646886</v>
+        <v>-0.06031519793978642</v>
       </c>
       <c r="D25">
-        <v>0.07082758012438384</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.0610381537363217</v>
+      </c>
+      <c r="E25">
+        <v>-0.0005397013143185803</v>
+      </c>
+      <c r="F25">
+        <v>-0.000538428722010747</v>
+      </c>
+      <c r="G25">
+        <v>0.009671514748349352</v>
+      </c>
+      <c r="H25">
+        <v>-0.02371576461654894</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.0136903309998596</v>
+        <v>0.01238331750017591</v>
       </c>
       <c r="C26">
-        <v>-0.01632264693522076</v>
+        <v>-0.02455671794564005</v>
       </c>
       <c r="D26">
-        <v>0.07505374981028833</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.07345147857895049</v>
+      </c>
+      <c r="E26">
+        <v>-0.00522180793923866</v>
+      </c>
+      <c r="F26">
+        <v>0.027789226794389</v>
+      </c>
+      <c r="G26">
+        <v>0.01550310308829681</v>
+      </c>
+      <c r="H26">
+        <v>-0.04660726209432083</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1953650420885525</v>
+        <v>0.258998378636973</v>
       </c>
       <c r="C28">
-        <v>0.2495211565792299</v>
+        <v>0.2160188297428781</v>
       </c>
       <c r="D28">
-        <v>-0.004167099015870333</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.002737624999379688</v>
+      </c>
+      <c r="E28">
+        <v>-0.06145056416815137</v>
+      </c>
+      <c r="F28">
+        <v>0.03104293541950846</v>
+      </c>
+      <c r="G28">
+        <v>-0.0352927374777789</v>
+      </c>
+      <c r="H28">
+        <v>0.05829250924532308</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.002728007627819515</v>
+        <v>0.004162257800260453</v>
       </c>
       <c r="C29">
-        <v>-0.02364702554698965</v>
+        <v>-0.02801188460684767</v>
       </c>
       <c r="D29">
-        <v>0.0968787423796787</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.1038520423736019</v>
+      </c>
+      <c r="E29">
+        <v>0.003406993836232188</v>
+      </c>
+      <c r="F29">
+        <v>0.0445393452117798</v>
+      </c>
+      <c r="G29">
+        <v>0.02026768687746689</v>
+      </c>
+      <c r="H29">
+        <v>-0.08324157141950758</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.03010811966497606</v>
+        <v>0.02839543948437631</v>
       </c>
       <c r="C30">
-        <v>-0.06601795129224619</v>
+        <v>-0.07813766982700483</v>
       </c>
       <c r="D30">
-        <v>0.1600039939832004</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1658587549798139</v>
+      </c>
+      <c r="E30">
+        <v>-0.004770816766986967</v>
+      </c>
+      <c r="F30">
+        <v>0.04282533344195575</v>
+      </c>
+      <c r="G30">
+        <v>0.003837110625359716</v>
+      </c>
+      <c r="H30">
+        <v>-0.06765207241580984</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05467488980973091</v>
+        <v>0.03910862178612218</v>
       </c>
       <c r="C31">
-        <v>-0.07643988288635671</v>
+        <v>-0.08346042751698204</v>
       </c>
       <c r="D31">
-        <v>0.05889527043075111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.04529757878314823</v>
+      </c>
+      <c r="E31">
+        <v>-0.00807739802254508</v>
+      </c>
+      <c r="F31">
+        <v>0.0316384726542458</v>
+      </c>
+      <c r="G31">
+        <v>0.01427559306216214</v>
+      </c>
+      <c r="H31">
+        <v>-0.01237252434724674</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02459975368504589</v>
+        <v>0.02269856497257931</v>
       </c>
       <c r="C32">
-        <v>-0.02568641164527284</v>
+        <v>-0.03160139541604525</v>
       </c>
       <c r="D32">
-        <v>0.0989430002991577</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1213015376026827</v>
+      </c>
+      <c r="E32">
+        <v>-0.03762945461968202</v>
+      </c>
+      <c r="F32">
+        <v>0.0622543696316297</v>
+      </c>
+      <c r="G32">
+        <v>0.02157984310959942</v>
+      </c>
+      <c r="H32">
+        <v>-0.02840164013250786</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02256663566753339</v>
+        <v>0.02097644610439823</v>
       </c>
       <c r="C33">
-        <v>-0.04521797863332266</v>
+        <v>-0.05242955182430574</v>
       </c>
       <c r="D33">
-        <v>0.1495260087692626</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1383110012141335</v>
+      </c>
+      <c r="E33">
+        <v>-0.02193723930614686</v>
+      </c>
+      <c r="F33">
+        <v>0.03541750306727646</v>
+      </c>
+      <c r="G33">
+        <v>0.01255190600961852</v>
+      </c>
+      <c r="H33">
+        <v>-0.04732780666837928</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03496901345116848</v>
+        <v>0.02392214582716756</v>
       </c>
       <c r="C34">
-        <v>-0.06314271475873375</v>
+        <v>-0.06567751802159211</v>
       </c>
       <c r="D34">
-        <v>0.06904630748366217</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.04955344915738444</v>
+      </c>
+      <c r="E34">
+        <v>0.01960321304316193</v>
+      </c>
+      <c r="F34">
+        <v>-0.01865945419645323</v>
+      </c>
+      <c r="G34">
+        <v>0.0215418261429583</v>
+      </c>
+      <c r="H34">
+        <v>-0.04504421535501659</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001229050131860658</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.002330666230826773</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.0102070928206366</v>
+      </c>
+      <c r="E35">
+        <v>0.0007666011701666221</v>
+      </c>
+      <c r="F35">
+        <v>0.001517732490061179</v>
+      </c>
+      <c r="G35">
+        <v>0.000763664398297247</v>
+      </c>
+      <c r="H35">
+        <v>-0.004073967604959215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01876356436322302</v>
+        <v>0.01748585693890562</v>
       </c>
       <c r="C36">
-        <v>-0.008838569304776743</v>
+        <v>-0.01960694419696593</v>
       </c>
       <c r="D36">
-        <v>0.09715013996715681</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.08781838750666469</v>
+      </c>
+      <c r="E36">
+        <v>-0.01451513126117902</v>
+      </c>
+      <c r="F36">
+        <v>0.0216294807913708</v>
+      </c>
+      <c r="G36">
+        <v>-0.004671279433696866</v>
+      </c>
+      <c r="H36">
+        <v>-0.04125295437382033</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01832925839663521</v>
+        <v>0.02158471879570836</v>
       </c>
       <c r="C38">
-        <v>-0.01606256657538369</v>
+        <v>-0.02122806633920809</v>
       </c>
       <c r="D38">
-        <v>0.08553639117485518</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.08220385276907258</v>
+      </c>
+      <c r="E38">
+        <v>-0.02816876608306631</v>
+      </c>
+      <c r="F38">
+        <v>-0.01636437951225801</v>
+      </c>
+      <c r="G38">
+        <v>0.01989969743620528</v>
+      </c>
+      <c r="H38">
+        <v>-0.04228585471702095</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03807163023224265</v>
+        <v>0.02898416753433367</v>
       </c>
       <c r="C39">
-        <v>-0.06010203500818362</v>
+        <v>-0.07479018480745686</v>
       </c>
       <c r="D39">
-        <v>0.1099662210399812</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1098186354786891</v>
+      </c>
+      <c r="E39">
+        <v>0.01158756057498034</v>
+      </c>
+      <c r="F39">
+        <v>-0.0115587545773221</v>
+      </c>
+      <c r="G39">
+        <v>-0.001380272599890277</v>
+      </c>
+      <c r="H39">
+        <v>-0.09183220251307822</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.0163936634589224</v>
+        <v>0.01159075165902335</v>
       </c>
       <c r="C40">
-        <v>-0.04349401527554193</v>
+        <v>-0.04041135934898472</v>
       </c>
       <c r="D40">
-        <v>0.09442813069193126</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.09442849984450896</v>
+      </c>
+      <c r="E40">
+        <v>-0.02337790469956988</v>
+      </c>
+      <c r="F40">
+        <v>0.09609172450680319</v>
+      </c>
+      <c r="G40">
+        <v>0.1784742524315443</v>
+      </c>
+      <c r="H40">
+        <v>-0.1116085338524473</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0301264178548526</v>
+        <v>0.02814667391567906</v>
       </c>
       <c r="C41">
-        <v>-0.004163608180957242</v>
+        <v>-0.01343353163511978</v>
       </c>
       <c r="D41">
-        <v>0.07124305363646635</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05318387123731871</v>
+      </c>
+      <c r="E41">
+        <v>-0.04219216176113723</v>
+      </c>
+      <c r="F41">
+        <v>0.01727246084537675</v>
+      </c>
+      <c r="G41">
+        <v>0.03034256530914999</v>
+      </c>
+      <c r="H41">
+        <v>-0.03797226260399578</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.02335713876975234</v>
+        <v>0.01980608505878229</v>
       </c>
       <c r="C43">
-        <v>-0.01330408377015011</v>
+        <v>-0.02019507334111514</v>
       </c>
       <c r="D43">
-        <v>0.1031495754516138</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.08000151247681489</v>
+      </c>
+      <c r="E43">
+        <v>-0.02146384822457843</v>
+      </c>
+      <c r="F43">
+        <v>0.01274763883985676</v>
+      </c>
+      <c r="G43">
+        <v>0.02421342003311819</v>
+      </c>
+      <c r="H43">
+        <v>-0.04410313068672063</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01042663711949706</v>
+        <v>0.01170297267891477</v>
       </c>
       <c r="C44">
-        <v>-0.04417545422192019</v>
+        <v>-0.04494360099887699</v>
       </c>
       <c r="D44">
-        <v>0.09350550045897828</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.1111808389532842</v>
+      </c>
+      <c r="E44">
+        <v>-0.02822862861934576</v>
+      </c>
+      <c r="F44">
+        <v>0.02348173879867971</v>
+      </c>
+      <c r="G44">
+        <v>0.009301742740249237</v>
+      </c>
+      <c r="H44">
+        <v>-0.05079246742095542</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01413882945843255</v>
+        <v>0.009449563456355349</v>
       </c>
       <c r="C46">
-        <v>-0.02630216379985288</v>
+        <v>-0.03414126794817009</v>
       </c>
       <c r="D46">
-        <v>0.1057665911303267</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.09970312765692234</v>
+      </c>
+      <c r="E46">
+        <v>-0.00865548958990194</v>
+      </c>
+      <c r="F46">
+        <v>0.02335098075755247</v>
+      </c>
+      <c r="G46">
+        <v>0.008020019435510299</v>
+      </c>
+      <c r="H46">
+        <v>-0.08426188036899165</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09032333579471288</v>
+        <v>0.0689080970632811</v>
       </c>
       <c r="C47">
-        <v>-0.0866480576348504</v>
+        <v>-0.1021744220391667</v>
       </c>
       <c r="D47">
-        <v>0.03247744340843721</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02473220862760623</v>
+      </c>
+      <c r="E47">
+        <v>-0.02100862974575742</v>
+      </c>
+      <c r="F47">
+        <v>0.02025127329385891</v>
+      </c>
+      <c r="G47">
+        <v>0.005807145966474376</v>
+      </c>
+      <c r="H47">
+        <v>0.05560840708698001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01163421120396052</v>
+        <v>0.01189349092916455</v>
       </c>
       <c r="C48">
-        <v>-0.02096407923102544</v>
+        <v>-0.02680398350541644</v>
       </c>
       <c r="D48">
-        <v>0.08687101242773985</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.08595601626475703</v>
+      </c>
+      <c r="E48">
+        <v>-0.04231854501939376</v>
+      </c>
+      <c r="F48">
+        <v>0.02988947588658301</v>
+      </c>
+      <c r="G48">
+        <v>0.005572641574045584</v>
+      </c>
+      <c r="H48">
+        <v>-0.06024756832769963</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04980283310851347</v>
+        <v>0.03669173112076014</v>
       </c>
       <c r="C50">
-        <v>-0.06031190973568439</v>
+        <v>-0.06992384540269175</v>
       </c>
       <c r="D50">
-        <v>0.06131076715720446</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05415829287370533</v>
+      </c>
+      <c r="E50">
+        <v>-0.01401211811724581</v>
+      </c>
+      <c r="F50">
+        <v>0.03618180142577885</v>
+      </c>
+      <c r="G50">
+        <v>0.0435084573890681</v>
+      </c>
+      <c r="H50">
+        <v>0.001199690803453699</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01023102184152456</v>
+        <v>0.008064175218701137</v>
       </c>
       <c r="C51">
-        <v>-0.01688477069040209</v>
+        <v>-0.02341809662613527</v>
       </c>
       <c r="D51">
-        <v>0.08745960460834414</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.09209806696146693</v>
+      </c>
+      <c r="E51">
+        <v>0.004791760481137615</v>
+      </c>
+      <c r="F51">
+        <v>0.0109138949541334</v>
+      </c>
+      <c r="G51">
+        <v>0.0001897335440623311</v>
+      </c>
+      <c r="H51">
+        <v>-0.07211505256291985</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1055488432632711</v>
+        <v>0.0885661971799819</v>
       </c>
       <c r="C53">
-        <v>-0.1062146391361016</v>
+        <v>-0.1257414081371367</v>
       </c>
       <c r="D53">
-        <v>-0.00852070640487216</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.004815690691005833</v>
+      </c>
+      <c r="E53">
+        <v>-0.06845673532029836</v>
+      </c>
+      <c r="F53">
+        <v>0.08288406643678214</v>
+      </c>
+      <c r="G53">
+        <v>0.005907493793167807</v>
+      </c>
+      <c r="H53">
+        <v>0.01475650282154149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01845866607757564</v>
+        <v>0.01613246567420272</v>
       </c>
       <c r="C54">
-        <v>-0.02761465169320617</v>
+        <v>-0.03539013508929443</v>
       </c>
       <c r="D54">
-        <v>0.1117917192349457</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.09578914733285221</v>
+      </c>
+      <c r="E54">
+        <v>-0.02191804104982509</v>
+      </c>
+      <c r="F54">
+        <v>0.01816650114849416</v>
+      </c>
+      <c r="G54">
+        <v>0.04416543769796476</v>
+      </c>
+      <c r="H54">
+        <v>-0.06526926096925513</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09795302423186651</v>
+        <v>0.07900597889745337</v>
       </c>
       <c r="C55">
-        <v>-0.08160563775860905</v>
+        <v>-0.1006397985365333</v>
       </c>
       <c r="D55">
-        <v>-0.02111280437250023</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.02020967452070706</v>
+      </c>
+      <c r="E55">
+        <v>-0.02074205254853402</v>
+      </c>
+      <c r="F55">
+        <v>0.06311949854133393</v>
+      </c>
+      <c r="G55">
+        <v>0.03205413030797205</v>
+      </c>
+      <c r="H55">
+        <v>0.01971378817884794</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.135348741335437</v>
+        <v>0.1097934421418681</v>
       </c>
       <c r="C56">
-        <v>-0.1145016356533171</v>
+        <v>-0.1477885334977115</v>
       </c>
       <c r="D56">
-        <v>-0.02098358504848706</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.02267125414789814</v>
+      </c>
+      <c r="E56">
+        <v>-0.04585509254611361</v>
+      </c>
+      <c r="F56">
+        <v>0.05388985708730893</v>
+      </c>
+      <c r="G56">
+        <v>0.03720934721207671</v>
+      </c>
+      <c r="H56">
+        <v>0.03963749115981755</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.009081154604516658</v>
+        <v>0.000523307009909278</v>
       </c>
       <c r="C58">
-        <v>-0.03906823117845781</v>
+        <v>-0.05199652123586556</v>
       </c>
       <c r="D58">
-        <v>0.1983818353257721</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.2641885462974864</v>
+      </c>
+      <c r="E58">
+        <v>-0.08976627792558743</v>
+      </c>
+      <c r="F58">
+        <v>0.1243080784971676</v>
+      </c>
+      <c r="G58">
+        <v>0.07545724725732483</v>
+      </c>
+      <c r="H58">
+        <v>0.02565892872923862</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1501457360430498</v>
+        <v>0.1978282255338813</v>
       </c>
       <c r="C59">
-        <v>0.1683117008656249</v>
+        <v>0.139840030763877</v>
       </c>
       <c r="D59">
-        <v>0.05400409995184017</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.06844998681464783</v>
+      </c>
+      <c r="E59">
+        <v>-0.04566688063974688</v>
+      </c>
+      <c r="F59">
+        <v>-0.009134676169499163</v>
+      </c>
+      <c r="G59">
+        <v>-0.01271140168771737</v>
+      </c>
+      <c r="H59">
+        <v>0.02301718247257344</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2361224139603885</v>
+        <v>0.2097489702753669</v>
       </c>
       <c r="C60">
-        <v>-0.08030948640657874</v>
+        <v>-0.1315375726789464</v>
       </c>
       <c r="D60">
-        <v>0.1674257123328807</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.10841612720886</v>
+      </c>
+      <c r="E60">
+        <v>0.3168197265105451</v>
+      </c>
+      <c r="F60">
+        <v>-0.1265129804681585</v>
+      </c>
+      <c r="G60">
+        <v>-0.09997601944203056</v>
+      </c>
+      <c r="H60">
+        <v>0.17842723070743</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04175309124556267</v>
+        <v>0.0323902750079656</v>
       </c>
       <c r="C61">
-        <v>-0.05705875182707655</v>
+        <v>-0.06800814559197972</v>
       </c>
       <c r="D61">
-        <v>0.1147680065490608</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09665692187806217</v>
+      </c>
+      <c r="E61">
+        <v>0.01286284552042792</v>
+      </c>
+      <c r="F61">
+        <v>-0.01083698575967328</v>
+      </c>
+      <c r="G61">
+        <v>-0.001469319235317363</v>
+      </c>
+      <c r="H61">
+        <v>-0.04853755466058383</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01420904677579284</v>
+        <v>0.01133442954895887</v>
       </c>
       <c r="C63">
-        <v>-0.0261845914897743</v>
+        <v>-0.03481435570465803</v>
       </c>
       <c r="D63">
-        <v>0.08787120565318783</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.07710908611669301</v>
+      </c>
+      <c r="E63">
+        <v>0.002565668810006869</v>
+      </c>
+      <c r="F63">
+        <v>0.02418811842020713</v>
+      </c>
+      <c r="G63">
+        <v>0.005361447541029975</v>
+      </c>
+      <c r="H63">
+        <v>-0.0499603188054011</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05571547935605028</v>
+        <v>0.0405440683097255</v>
       </c>
       <c r="C64">
-        <v>-0.07308956338690323</v>
+        <v>-0.08307937709800267</v>
       </c>
       <c r="D64">
-        <v>0.05063363225408756</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.0509620247989028</v>
+      </c>
+      <c r="E64">
+        <v>-0.01093289724445036</v>
+      </c>
+      <c r="F64">
+        <v>0.01368421148088923</v>
+      </c>
+      <c r="G64">
+        <v>-0.07180763014801994</v>
+      </c>
+      <c r="H64">
+        <v>-0.0722490754135607</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03003633813416059</v>
+        <v>0.02777583023023844</v>
       </c>
       <c r="C65">
-        <v>-0.02157974184004215</v>
+        <v>-0.03380839402430915</v>
       </c>
       <c r="D65">
-        <v>0.1123454887973799</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1083704126149269</v>
+      </c>
+      <c r="E65">
+        <v>0.005835690267122074</v>
+      </c>
+      <c r="F65">
+        <v>0.03260887893804653</v>
+      </c>
+      <c r="G65">
+        <v>0.01450742683254202</v>
+      </c>
+      <c r="H65">
+        <v>-0.02171625362552368</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04003841278175747</v>
+        <v>0.03098196634974036</v>
       </c>
       <c r="C66">
-        <v>-0.0685456524013462</v>
+        <v>-0.08639515721335669</v>
       </c>
       <c r="D66">
-        <v>0.123140360384231</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1347313350880308</v>
+      </c>
+      <c r="E66">
+        <v>0.008299283395250377</v>
+      </c>
+      <c r="F66">
+        <v>-0.006677649588072831</v>
+      </c>
+      <c r="G66">
+        <v>0.01001698871962298</v>
+      </c>
+      <c r="H66">
+        <v>-0.04915065565680973</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03986597911500318</v>
+        <v>0.03749492924938649</v>
       </c>
       <c r="C67">
-        <v>-0.02229595658953682</v>
+        <v>-0.03025850655184525</v>
       </c>
       <c r="D67">
-        <v>0.04798373830363405</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03627676780634224</v>
+      </c>
+      <c r="E67">
+        <v>-0.005398140528846566</v>
+      </c>
+      <c r="F67">
+        <v>-0.0316915828124338</v>
+      </c>
+      <c r="G67">
+        <v>0.01846148284827466</v>
+      </c>
+      <c r="H67">
+        <v>-0.04535015925223239</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1841217373572107</v>
+        <v>0.229195671564272</v>
       </c>
       <c r="C68">
-        <v>0.1999217504404097</v>
+        <v>0.1598866135650298</v>
       </c>
       <c r="D68">
-        <v>0.02076149370209859</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.0299904456666442</v>
+      </c>
+      <c r="E68">
+        <v>-0.01706472256772405</v>
+      </c>
+      <c r="F68">
+        <v>0.03859639452213611</v>
+      </c>
+      <c r="G68">
+        <v>0.03221029143919883</v>
+      </c>
+      <c r="H68">
+        <v>0.01642424746288919</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08390374274994454</v>
+        <v>0.06342185506292937</v>
       </c>
       <c r="C69">
-        <v>-0.1024718003062126</v>
+        <v>-0.1079059124800484</v>
       </c>
       <c r="D69">
-        <v>0.06140108273934507</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.0403497290956735</v>
+      </c>
+      <c r="E69">
+        <v>-0.002935419932596271</v>
+      </c>
+      <c r="F69">
+        <v>0.008209644228865141</v>
+      </c>
+      <c r="G69">
+        <v>0.01024911094199833</v>
+      </c>
+      <c r="H69">
+        <v>0.03198933423306773</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1722746227671933</v>
+        <v>0.2180906828957067</v>
       </c>
       <c r="C71">
-        <v>0.2083423879150508</v>
+        <v>0.1703507876088794</v>
       </c>
       <c r="D71">
-        <v>0.01886865021308445</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.02920239987774607</v>
+      </c>
+      <c r="E71">
+        <v>-0.03389741383396721</v>
+      </c>
+      <c r="F71">
+        <v>0.05827270472090224</v>
+      </c>
+      <c r="G71">
+        <v>0.05065275609873553</v>
+      </c>
+      <c r="H71">
+        <v>0.01738206958251462</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1114647809639688</v>
+        <v>0.09405054352430149</v>
       </c>
       <c r="C72">
-        <v>-0.0638353493849098</v>
+        <v>-0.09515615771171802</v>
       </c>
       <c r="D72">
-        <v>0.08383100470156306</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.08282983497244371</v>
+      </c>
+      <c r="E72">
+        <v>0.06647668947595267</v>
+      </c>
+      <c r="F72">
+        <v>0.03055683655102047</v>
+      </c>
+      <c r="G72">
+        <v>0.0007734402841221325</v>
+      </c>
+      <c r="H72">
+        <v>-0.02737994628087025</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2157591973393756</v>
+        <v>0.1906961908347976</v>
       </c>
       <c r="C73">
-        <v>-0.04710094786257397</v>
+        <v>-0.1078959694946891</v>
       </c>
       <c r="D73">
-        <v>0.2669208866809817</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1437062417057981</v>
+      </c>
+      <c r="E73">
+        <v>0.5591053374955347</v>
+      </c>
+      <c r="F73">
+        <v>-0.2082140878129878</v>
+      </c>
+      <c r="G73">
+        <v>-0.1734674626144176</v>
+      </c>
+      <c r="H73">
+        <v>0.2311455128872026</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1104448867632885</v>
+        <v>0.0870538628129215</v>
       </c>
       <c r="C74">
-        <v>-0.08901457366273763</v>
+        <v>-0.1122834302301557</v>
       </c>
       <c r="D74">
-        <v>-0.03433267663938833</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03688407644441071</v>
+      </c>
+      <c r="E74">
+        <v>-0.02768421220721337</v>
+      </c>
+      <c r="F74">
+        <v>0.06978249912401925</v>
+      </c>
+      <c r="G74">
+        <v>-0.01021088999074499</v>
+      </c>
+      <c r="H74">
+        <v>0.03569767661599987</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2574460229308828</v>
+        <v>0.2096053603192702</v>
       </c>
       <c r="C75">
-        <v>-0.1541874535196744</v>
+        <v>-0.2055017468590551</v>
       </c>
       <c r="D75">
-        <v>-0.1240882904322784</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1392683323645442</v>
+      </c>
+      <c r="E75">
+        <v>-0.08253981671358439</v>
+      </c>
+      <c r="F75">
+        <v>0.01468172388046969</v>
+      </c>
+      <c r="G75">
+        <v>0.05639403835571547</v>
+      </c>
+      <c r="H75">
+        <v>0.04584678947898023</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1460132449367398</v>
+        <v>0.1147510167942981</v>
       </c>
       <c r="C76">
-        <v>-0.1173010911718322</v>
+        <v>-0.145299166994062</v>
       </c>
       <c r="D76">
-        <v>-0.01988160488685378</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0294485841732165</v>
+      </c>
+      <c r="E76">
+        <v>-0.06326250921038618</v>
+      </c>
+      <c r="F76">
+        <v>0.03416853321794788</v>
+      </c>
+      <c r="G76">
+        <v>0.0268730314465847</v>
+      </c>
+      <c r="H76">
+        <v>-0.02573498113120607</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.04337126938377758</v>
+        <v>0.04576606570672168</v>
       </c>
       <c r="C77">
-        <v>-0.07793456622373214</v>
+        <v>-0.08675223307080634</v>
       </c>
       <c r="D77">
-        <v>0.04374471078853429</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1490409404377468</v>
+      </c>
+      <c r="E77">
+        <v>-0.5282611847552898</v>
+      </c>
+      <c r="F77">
+        <v>-0.3838384808302887</v>
+      </c>
+      <c r="G77">
+        <v>0.1093306052962769</v>
+      </c>
+      <c r="H77">
+        <v>0.6378190744446436</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.0415027662241257</v>
+        <v>0.03760875880414682</v>
       </c>
       <c r="C78">
-        <v>-0.06303789529405776</v>
+        <v>-0.07530330103277569</v>
       </c>
       <c r="D78">
-        <v>0.141146812875087</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1420766772135915</v>
+      </c>
+      <c r="E78">
+        <v>-0.003805755058430959</v>
+      </c>
+      <c r="F78">
+        <v>0.03780737390304538</v>
+      </c>
+      <c r="G78">
+        <v>-0.00427700248917643</v>
+      </c>
+      <c r="H78">
+        <v>0.01207690401591121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.06269259778071766</v>
+        <v>0.05338764385142264</v>
       </c>
       <c r="C79">
-        <v>-0.1066476436433415</v>
+        <v>-0.1214735315471206</v>
       </c>
       <c r="D79">
-        <v>-0.1441676080058897</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.06661727138290127</v>
+      </c>
+      <c r="E79">
+        <v>-0.1991601238653452</v>
+      </c>
+      <c r="F79">
+        <v>0.5002784958128277</v>
+      </c>
+      <c r="G79">
+        <v>-0.7237289589454876</v>
+      </c>
+      <c r="H79">
+        <v>0.1612883928859011</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.02051071667819641</v>
+        <v>0.01617509745273695</v>
       </c>
       <c r="C80">
-        <v>-0.04843547909037129</v>
+        <v>-0.04881255625758871</v>
       </c>
       <c r="D80">
-        <v>0.02783172677298752</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.02403340086569555</v>
+      </c>
+      <c r="E80">
+        <v>-0.0004371971701252629</v>
+      </c>
+      <c r="F80">
+        <v>0.02384091921402479</v>
+      </c>
+      <c r="G80">
+        <v>0.03205517632297512</v>
+      </c>
+      <c r="H80">
+        <v>-0.05077502682537138</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.133287856174981</v>
+        <v>0.1011264910366506</v>
       </c>
       <c r="C81">
-        <v>-0.1202181927552853</v>
+        <v>-0.141317067965183</v>
       </c>
       <c r="D81">
-        <v>-0.09859754065728377</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.09838359715465601</v>
+      </c>
+      <c r="E81">
+        <v>-0.08749575475296799</v>
+      </c>
+      <c r="F81">
+        <v>0.05653217990259547</v>
+      </c>
+      <c r="G81">
+        <v>0.02533818667108618</v>
+      </c>
+      <c r="H81">
+        <v>-0.02589868790169955</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2658142460157345</v>
+        <v>0.1963206964855217</v>
       </c>
       <c r="C82">
-        <v>-0.245375343287287</v>
+        <v>-0.2706743977206538</v>
       </c>
       <c r="D82">
-        <v>-0.2298251946264282</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2318705889895464</v>
+      </c>
+      <c r="E82">
+        <v>-0.00773548383051198</v>
+      </c>
+      <c r="F82">
+        <v>-0.06180513904549476</v>
+      </c>
+      <c r="G82">
+        <v>0.06885921665682866</v>
+      </c>
+      <c r="H82">
+        <v>-0.009406134411152399</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02582548531443778</v>
+        <v>0.01472322199776034</v>
       </c>
       <c r="C83">
-        <v>-0.06153554734323041</v>
+        <v>-0.0576423236838357</v>
       </c>
       <c r="D83">
-        <v>0.05624188254015696</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05920004394286054</v>
+      </c>
+      <c r="E83">
+        <v>-0.06319247208599536</v>
+      </c>
+      <c r="F83">
+        <v>-0.07638416741847977</v>
+      </c>
+      <c r="G83">
+        <v>-0.009174956453958463</v>
+      </c>
+      <c r="H83">
+        <v>0.01784040680672002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.001165855172837165</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.008044194224332404</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.02318911522271044</v>
+      </c>
+      <c r="E84">
+        <v>-0.0129748793278522</v>
+      </c>
+      <c r="F84">
+        <v>0.0246245168727329</v>
+      </c>
+      <c r="G84">
+        <v>0.01420315308908828</v>
+      </c>
+      <c r="H84">
+        <v>-0.0239319845724895</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.168031266985433</v>
+        <v>0.132687241268453</v>
       </c>
       <c r="C85">
-        <v>-0.1262097954574917</v>
+        <v>-0.1643358339299611</v>
       </c>
       <c r="D85">
-        <v>-0.06513792919660803</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.08649714502940725</v>
+      </c>
+      <c r="E85">
+        <v>-0.01907042301597606</v>
+      </c>
+      <c r="F85">
+        <v>0.06071755542042925</v>
+      </c>
+      <c r="G85">
+        <v>-0.04485219692929305</v>
+      </c>
+      <c r="H85">
+        <v>-0.02251553885705446</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02103194074898965</v>
+        <v>0.01779650217026661</v>
       </c>
       <c r="C86">
-        <v>-0.03631112287349777</v>
+        <v>-0.03772794183841122</v>
       </c>
       <c r="D86">
-        <v>0.1186285636355693</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1212917354185459</v>
+      </c>
+      <c r="E86">
+        <v>-0.02411282363043852</v>
+      </c>
+      <c r="F86">
+        <v>-0.01863635697838751</v>
+      </c>
+      <c r="G86">
+        <v>0.03754952569655289</v>
+      </c>
+      <c r="H86">
+        <v>0.06104049791657162</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02778654486701885</v>
+        <v>0.02984544883513298</v>
       </c>
       <c r="C87">
-        <v>-0.02644228951310528</v>
+        <v>-0.04020747435790435</v>
       </c>
       <c r="D87">
-        <v>0.1211449482609013</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1439806601857515</v>
+      </c>
+      <c r="E87">
+        <v>-0.04848463531056658</v>
+      </c>
+      <c r="F87">
+        <v>0.03299822198547293</v>
+      </c>
+      <c r="G87">
+        <v>0.01638383214940767</v>
+      </c>
+      <c r="H87">
+        <v>-0.055587152461504</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.0680009526999744</v>
+        <v>0.05525447058147916</v>
       </c>
       <c r="C88">
-        <v>-0.04630120548251174</v>
+        <v>-0.06235939567025035</v>
       </c>
       <c r="D88">
-        <v>0.04717907620906971</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02198196840831384</v>
+      </c>
+      <c r="E88">
+        <v>0.001443931987199152</v>
+      </c>
+      <c r="F88">
+        <v>0.02855890482802952</v>
+      </c>
+      <c r="G88">
+        <v>-0.005731358613300407</v>
+      </c>
+      <c r="H88">
+        <v>-0.03383178899457334</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.273294489872356</v>
+        <v>0.3380407296393441</v>
       </c>
       <c r="C89">
-        <v>0.3760532191171634</v>
+        <v>0.295973298332904</v>
       </c>
       <c r="D89">
-        <v>0.009372941590974456</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01640152832531253</v>
+      </c>
+      <c r="E89">
+        <v>-0.05460760871386798</v>
+      </c>
+      <c r="F89">
+        <v>-0.006042398273123777</v>
+      </c>
+      <c r="G89">
+        <v>-0.03854371062274656</v>
+      </c>
+      <c r="H89">
+        <v>-0.1757047491107947</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2224330276397614</v>
+        <v>0.2701822197125415</v>
       </c>
       <c r="C90">
-        <v>0.2749240427744057</v>
+        <v>0.2102141106909961</v>
       </c>
       <c r="D90">
-        <v>0.02499918599671548</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.0360290653023382</v>
+      </c>
+      <c r="E90">
+        <v>-0.03914784487229866</v>
+      </c>
+      <c r="F90">
+        <v>0.004876050992691616</v>
+      </c>
+      <c r="G90">
+        <v>0.06294402556167697</v>
+      </c>
+      <c r="H90">
+        <v>-0.01651928939607101</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.17091374373372</v>
+        <v>0.1313838346146666</v>
       </c>
       <c r="C91">
-        <v>-0.1653909982093702</v>
+        <v>-0.1829247281594695</v>
       </c>
       <c r="D91">
-        <v>-0.1243156337228426</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1158350387507327</v>
+      </c>
+      <c r="E91">
+        <v>-0.09687376782927745</v>
+      </c>
+      <c r="F91">
+        <v>0.06969047885195115</v>
+      </c>
+      <c r="G91">
+        <v>-0.02510930537766788</v>
+      </c>
+      <c r="H91">
+        <v>0.03245728003789038</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1883494067757908</v>
+        <v>0.2584191353354386</v>
       </c>
       <c r="C92">
-        <v>0.2690093098211736</v>
+        <v>0.2341385817119161</v>
       </c>
       <c r="D92">
-        <v>0.01854257637601433</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03350738840363254</v>
+      </c>
+      <c r="E92">
+        <v>-0.1055036900501974</v>
+      </c>
+      <c r="F92">
+        <v>0.02601688576116615</v>
+      </c>
+      <c r="G92">
+        <v>0.01608391618284248</v>
+      </c>
+      <c r="H92">
+        <v>-0.04559942643472149</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2416686050419749</v>
+        <v>0.2872646851887831</v>
       </c>
       <c r="C93">
-        <v>0.2988082648101777</v>
+        <v>0.2280978408560997</v>
       </c>
       <c r="D93">
-        <v>0.02353429160828347</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.008063318944583791</v>
+      </c>
+      <c r="E93">
+        <v>0.0225581526039626</v>
+      </c>
+      <c r="F93">
+        <v>0.0419524274426325</v>
+      </c>
+      <c r="G93">
+        <v>-0.005769905142318096</v>
+      </c>
+      <c r="H93">
+        <v>0.03772134325197668</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3525590906644458</v>
+        <v>0.2834803012331298</v>
       </c>
       <c r="C94">
-        <v>-0.2095355313636522</v>
+        <v>-0.2859437090134992</v>
       </c>
       <c r="D94">
-        <v>-0.3624740254875283</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.3813277277008874</v>
+      </c>
+      <c r="E94">
+        <v>-0.0280885447784686</v>
+      </c>
+      <c r="F94">
+        <v>-0.03221924658791116</v>
+      </c>
+      <c r="G94">
+        <v>0.2606817296226032</v>
+      </c>
+      <c r="H94">
+        <v>-0.2248915753256964</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.0673608478467725</v>
+        <v>0.0586449513504182</v>
       </c>
       <c r="C95">
-        <v>-0.06658641610519887</v>
+        <v>-0.07891851991434023</v>
       </c>
       <c r="D95">
-        <v>0.1388233565344783</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1185076858116467</v>
+      </c>
+      <c r="E95">
+        <v>-0.244196437920971</v>
+      </c>
+      <c r="F95">
+        <v>-0.6063121558073941</v>
+      </c>
+      <c r="G95">
+        <v>-0.4510372007441238</v>
+      </c>
+      <c r="H95">
+        <v>-0.4412866063783027</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-5.310757541926647e-05</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0002663011129293329</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.0002592988706674494</v>
+      </c>
+      <c r="E97">
+        <v>0.0005400946706562851</v>
+      </c>
+      <c r="F97">
+        <v>0.0001680889281630556</v>
+      </c>
+      <c r="G97">
+        <v>0.0001141958270960424</v>
+      </c>
+      <c r="H97">
+        <v>-0.0002770514714756931</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.175285762565411</v>
+        <v>0.1593117780599488</v>
       </c>
       <c r="C98">
-        <v>-0.05921058400066205</v>
+        <v>-0.103655452503675</v>
       </c>
       <c r="D98">
-        <v>0.1417651158062343</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.09414924096415205</v>
+      </c>
+      <c r="E98">
+        <v>0.3184519978635063</v>
+      </c>
+      <c r="F98">
+        <v>-0.1018672701652084</v>
+      </c>
+      <c r="G98">
+        <v>-0.0837016643036739</v>
+      </c>
+      <c r="H98">
+        <v>0.1372791571309056</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002918156327014798</v>
+        <v>0.004397498576647572</v>
       </c>
       <c r="C101">
-        <v>-0.02320234468870327</v>
+        <v>-0.02741383152969886</v>
       </c>
       <c r="D101">
-        <v>0.09691244920571801</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.1035524823460771</v>
+      </c>
+      <c r="E101">
+        <v>0.002285550759470188</v>
+      </c>
+      <c r="F101">
+        <v>0.04415803625708507</v>
+      </c>
+      <c r="G101">
+        <v>0.01988149666270665</v>
+      </c>
+      <c r="H101">
+        <v>-0.083528129973594</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1237805453433529</v>
+        <v>0.08778716900054583</v>
       </c>
       <c r="C102">
-        <v>-0.1281159618088921</v>
+        <v>-0.1337971349161212</v>
       </c>
       <c r="D102">
-        <v>-0.09482206515020322</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.09819245901385389</v>
+      </c>
+      <c r="E102">
+        <v>-0.02513409657611896</v>
+      </c>
+      <c r="F102">
+        <v>-0.04320061672094955</v>
+      </c>
+      <c r="G102">
+        <v>0.02083646004556596</v>
+      </c>
+      <c r="H102">
+        <v>0.0008166952631990639</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
